--- a/merge1.xlsx
+++ b/merge1.xlsx
@@ -14,36 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>u18 patched</t>
-  </si>
-  <si>
-    <t>u20</t>
-  </si>
-  <si>
-    <t>nginx</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>nodejs</t>
-  </si>
-  <si>
-    <t>8.9.4</t>
-  </si>
-  <si>
-    <t>long term stable</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+  <si>
+    <t>kafka_version</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>logstash_compatible</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nodejs_library_compatible</t>
+  </si>
+  <si>
+    <t>other_Team_compatible</t>
   </si>
 </sst>
 </file>
@@ -401,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,10 +409,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -426,108 +423,170 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
